--- a/posesiones/1381252.xlsx
+++ b/posesiones/1381252.xlsx
@@ -1835,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>19</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>11</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>19</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R22">
         <v>8</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>18</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25">
         <v>6</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R33">
         <v>30</v>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>17</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3476,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>24</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>19</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>6</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <v>5</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>20</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>13</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>11</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>20</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R56">
         <v>4</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R58">
         <v>24</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>18</v>
@@ -4738,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61">
         <v>16</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R63">
         <v>4</v>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>22</v>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>21</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5050,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R67">
         <v>18</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R73">
         <v>30</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R77">
         <v>13</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R79">
         <v>19</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R81">
         <v>22</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5850,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R83">
         <v>10</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5953,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R85">
         <v>7</v>
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R86">
         <v>17</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R90">
         <v>25</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6494,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R96">
         <v>18</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R98">
         <v>3</v>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6888,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R104">
         <v>11</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R105">
         <v>8</v>
@@ -6985,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7123,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R110">
         <v>13</v>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R112">
         <v>12</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R114">
         <v>13</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7479,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R116">
         <v>22</v>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R119">
         <v>29</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7726,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R121">
         <v>5</v>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8011,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R127">
         <v>26</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R130">
         <v>24</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R131">
         <v>14</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8408,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R135">
         <v>12</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8511,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R137">
         <v>5</v>
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R138">
         <v>25</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R139">
         <v>17</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R142">
         <v>22</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R143">
         <v>1</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9108,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R149">
         <v>19</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9490,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9634,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R160">
         <v>11</v>
@@ -9687,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R161">
         <v>22</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9787,7 +9787,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R163">
         <v>10</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9981,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R167">
         <v>0</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10084,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R169">
         <v>10</v>
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R170">
         <v>23</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R172">
         <v>10</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10343,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R174">
         <v>14</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R176">
         <v>27</v>
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10540,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10728,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R185">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10975,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R187">
         <v>14</v>
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11078,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R189">
         <v>14</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R191">
         <v>20</v>
@@ -11228,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R192">
         <v>30</v>
@@ -11281,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R194">
         <v>10</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11851,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R205">
         <v>7</v>
@@ -11901,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R210">
         <v>15</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12192,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R212">
         <v>5</v>
@@ -12242,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12292,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R214">
         <v>5</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12392,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R216">
         <v>12</v>
@@ -12445,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R217">
         <v>23</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R223">
         <v>36</v>
@@ -12783,10 +12783,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q224">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12921,10 +12921,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q227">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12974,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R228">
         <v>26</v>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13077,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R230">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13224,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R233">
         <v>17</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13327,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R235">
         <v>21</v>
@@ -13377,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13568,7 +13568,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R240">
         <v>13</v>
@@ -13621,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R241">
         <v>22</v>
@@ -13674,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R242">
         <v>7</v>
@@ -13727,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R243">
         <v>26</v>
@@ -13777,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13827,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R246">
         <v>25</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13980,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R248">
         <v>23</v>
@@ -14030,7 +14030,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14080,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R250">
         <v>16</v>
@@ -14133,7 +14133,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R251">
         <v>17</v>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14233,7 +14233,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R253">
         <v>26</v>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R255">
         <v>13</v>
@@ -14386,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14430,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14477,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R260">
         <v>10</v>
@@ -14624,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R262">
         <v>19</v>
@@ -14727,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14777,7 +14777,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R264">
         <v>5</v>
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14924,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R267">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15115,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R272">
         <v>33</v>
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15262,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15312,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R279">
         <v>6</v>
@@ -15556,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R280">
         <v>23</v>
@@ -15609,7 +15609,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R281">
         <v>19</v>
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R282">
         <v>13</v>
@@ -15715,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15762,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15909,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R287">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16003,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16050,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16097,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16197,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R293">
         <v>33</v>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16294,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R297">
         <v>26</v>
@@ -16444,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16585,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16729,7 +16729,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R304">
         <v>0</v>
@@ -16782,7 +16782,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R305">
         <v>12</v>
@@ -16832,7 +16832,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16879,7 +16879,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16979,7 +16979,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R309">
         <v>26</v>
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17079,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17126,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17176,7 +17176,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R313">
         <v>13</v>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17276,7 +17276,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R315">
         <v>6</v>
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17376,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17423,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17564,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17614,7 +17614,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R322">
         <v>21</v>
@@ -17664,7 +17664,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17758,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17808,7 +17808,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R326">
         <v>22</v>
@@ -17858,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17905,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17999,7 +17999,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18046,7 +18046,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18096,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18143,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18193,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18240,7 +18240,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18287,7 +18287,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18334,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18381,7 +18381,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18428,7 +18428,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R341">
         <v>33</v>
@@ -18569,10 +18569,10 @@
         <v>1</v>
       </c>
       <c r="P342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q342">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18619,7 +18619,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18666,7 +18666,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18707,10 +18707,10 @@
         <v>1</v>
       </c>
       <c r="P345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18807,7 +18807,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18857,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R348">
         <v>26</v>
@@ -18910,7 +18910,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18960,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R350">
         <v>5</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19060,7 +19060,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R352">
         <v>15</v>
@@ -19110,7 +19110,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19160,7 +19160,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R354">
         <v>30</v>
@@ -19210,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R357">
         <v>22</v>
@@ -19360,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R359">
         <v>20</v>
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19554,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19601,7 +19601,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19651,7 +19651,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R364">
         <v>17</v>
@@ -19701,7 +19701,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19748,7 +19748,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19842,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19889,7 +19889,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19936,7 +19936,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19986,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R371">
         <v>12</v>
@@ -20039,7 +20039,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R372">
         <v>20</v>
@@ -20089,7 +20089,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20139,7 +20139,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R374">
         <v>17</v>
@@ -20192,7 +20192,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R375">
         <v>20</v>
@@ -20242,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20292,7 +20292,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R377">
         <v>10</v>
@@ -20345,7 +20345,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20395,7 +20395,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R379">
         <v>19</v>
@@ -20448,7 +20448,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20498,7 +20498,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R381">
         <v>5</v>
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20595,7 +20595,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20645,7 +20645,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R384">
         <v>12</v>
@@ -20695,7 +20695,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20745,7 +20745,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20792,7 +20792,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20886,7 +20886,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20936,7 +20936,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R390">
         <v>21</v>
@@ -20989,7 +20989,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21039,7 +21039,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R392">
         <v>9</v>
@@ -21092,7 +21092,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21142,7 +21142,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R394">
         <v>10</v>
@@ -21192,7 +21192,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21236,7 +21236,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21283,7 +21283,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21377,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21427,7 +21427,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21474,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21521,7 +21521,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21571,7 +21571,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R403">
         <v>27</v>
@@ -21624,7 +21624,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21671,7 +21671,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21718,7 +21718,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21765,7 +21765,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21815,7 +21815,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R408">
         <v>17</v>
@@ -21865,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21912,7 +21912,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21962,7 +21962,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R411">
         <v>45</v>
@@ -22015,7 +22015,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R413">
         <v>14</v>
@@ -22118,7 +22118,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22212,7 +22212,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22306,7 +22306,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22353,7 +22353,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22403,7 +22403,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R420">
         <v>15</v>
@@ -22456,7 +22456,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R421">
         <v>13</v>
@@ -22509,7 +22509,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22559,7 +22559,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R423">
         <v>19</v>
@@ -22609,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22659,7 +22659,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R425">
         <v>16</v>
@@ -22712,7 +22712,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22806,7 +22806,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22856,7 +22856,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R429">
         <v>22</v>
@@ -22906,7 +22906,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22950,7 +22950,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22997,7 +22997,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R434">
         <v>11</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23191,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23241,7 +23241,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R437">
         <v>0</v>
@@ -23294,7 +23294,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23344,7 +23344,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R439">
         <v>11</v>
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23444,7 +23444,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R441">
         <v>5</v>
@@ -23494,7 +23494,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23544,7 +23544,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R443">
         <v>20</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23644,7 +23644,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R445">
         <v>7</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23838,7 +23838,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R449">
         <v>4</v>
@@ -23885,7 +23885,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23982,7 +23982,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24076,7 +24076,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24123,7 +24123,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24173,7 +24173,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R456">
         <v>15</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24320,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24417,7 +24417,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R461">
         <v>1</v>
@@ -24470,7 +24470,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24520,7 +24520,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R463">
         <v>2</v>
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24617,7 +24617,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24711,7 +24711,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24761,7 +24761,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R468">
         <v>6</v>
@@ -24814,7 +24814,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R469">
         <v>10</v>
@@ -24867,7 +24867,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R470">
         <v>14</v>
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24967,7 +24967,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R472">
         <v>5</v>
@@ -25011,10 +25011,10 @@
         <v>1</v>
       </c>
       <c r="P473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q473">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
